--- a/configfile.xlsx
+++ b/configfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partech-my.sharepoint.com/personal/karl_schubert_partech_com/Documents/Code/Inventory Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F859407-E59C-4F40-8F16-F280DD4016B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{9F859407-E59C-4F40-8F16-F280DD4016B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EEF03CAC-00A9-4D19-895B-5D6FEFEB174F}"/>
   <bookViews>
-    <workbookView xWindow="-27405" yWindow="1695" windowWidth="14295" windowHeight="11070" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
   </bookViews>
   <sheets>
     <sheet name="itemmaster" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>M6150</t>
   </si>
@@ -73,13 +73,40 @@
     <t>demandstd</t>
   </si>
   <si>
-    <t>harddrive</t>
-  </si>
-  <si>
     <t>ram</t>
   </si>
   <si>
     <t>stand</t>
+  </si>
+  <si>
+    <t>hd</t>
+  </si>
+  <si>
+    <t>M6150-01</t>
+  </si>
+  <si>
+    <t>M6150-02</t>
+  </si>
+  <si>
+    <t>M6150-03</t>
+  </si>
+  <si>
+    <t>M6150-10</t>
+  </si>
+  <si>
+    <t>SSD.128GB</t>
+  </si>
+  <si>
+    <t>RAM.8GB</t>
+  </si>
+  <si>
+    <t>NoStand</t>
+  </si>
+  <si>
+    <t>Info does not change</t>
+  </si>
+  <si>
+    <t>Bom strucure will be scalable</t>
   </si>
 </sst>
 </file>
@@ -95,15 +122,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,18 +162,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93673BFE-8F2E-493D-8840-240270718E6F}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,72 +538,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="6">
         <v>430</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="6">
+        <v>700</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <v>200</v>
+      </c>
+      <c r="G3" s="6">
+        <v>200</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>435</v>
+      </c>
+      <c r="D4" s="6">
+        <v>400</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6">
+        <v>600</v>
+      </c>
+      <c r="G4" s="6">
+        <v>150</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>559</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>50</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>520</v>
+      </c>
+      <c r="D6" s="6">
+        <v>200</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>420</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C8" s="6">
+        <v>47</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
+        <v>84</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>59</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>108</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -823,15 +1159,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CB7306-75D0-4B5B-91EC-69E0658026B9}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="64cefb42-e3c2-4dc3-b144-1de1c401c1ce"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="9520cf19-b5d0-4cec-b926-caa658dd91e9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="64cefb42-e3c2-4dc3-b144-1de1c401c1ce"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>

--- a/configfile.xlsx
+++ b/configfile.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partech-my.sharepoint.com/personal/karl_schubert_partech_com/Documents/Code/Inventory Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\OneDrive - PAR Technology Corporation\Code\Inventory Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{9F859407-E59C-4F40-8F16-F280DD4016B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EEF03CAC-00A9-4D19-895B-5D6FEFEB174F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD046EC1-3385-4AF8-8E4C-5519834823D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
   </bookViews>
   <sheets>
     <sheet name="itemmaster" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="simchange" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,8 +31,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Karl</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{1FB72EA7-EDA7-4B25-8D9D-A71EA906889B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Forecast Mean</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{11937790-7591-4CA7-A79A-661206C9DB06}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Forecast stdev</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{40470C51-4A90-486C-BD2E-6E840364E5FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+demand mean</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{AC05D51D-E46B-4092-A2CF-867BBF5F291E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+demand stdev</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>M6150</t>
   </si>
@@ -61,27 +167,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>forecastmean</t>
-  </si>
-  <si>
-    <t>forecaststd</t>
-  </si>
-  <si>
-    <t>demandmean</t>
-  </si>
-  <si>
-    <t>demandstd</t>
-  </si>
-  <si>
-    <t>ram</t>
-  </si>
-  <si>
-    <t>stand</t>
-  </si>
-  <si>
-    <t>hd</t>
-  </si>
-  <si>
     <t>M6150-01</t>
   </si>
   <si>
@@ -107,19 +192,59 @@
   </si>
   <si>
     <t>Bom strucure will be scalable</t>
+  </si>
+  <si>
+    <t>bom.hd</t>
+  </si>
+  <si>
+    <t>bom.ram</t>
+  </si>
+  <si>
+    <t>bom.stand</t>
+  </si>
+  <si>
+    <t>newvalue</t>
+  </si>
+  <si>
+    <t>fcmn</t>
+  </si>
+  <si>
+    <t>fcstd</t>
+  </si>
+  <si>
+    <t>dmdmn</t>
+  </si>
+  <si>
+    <t>dmdstd</t>
+  </si>
+  <si>
+    <t>Component to change into skeleton terminal. These will be changed from components to terminals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -181,15 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,6 +324,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,11 +646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93673BFE-8F2E-493D-8840-240270718E6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93673BFE-8F2E-493D-8840-240270718E6F}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,320 +666,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>430</v>
+      </c>
+      <c r="D3" s="4">
+        <v>700</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <v>200</v>
+      </c>
+      <c r="G3" s="4">
+        <v>200</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>435</v>
+      </c>
+      <c r="D4" s="4">
+        <v>400</v>
+      </c>
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F4" s="4">
+        <v>600</v>
+      </c>
+      <c r="G4" s="4">
+        <v>150</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>559</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>520</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>420</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>84</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>108</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>430</v>
-      </c>
-      <c r="D3" s="6">
-        <v>700</v>
-      </c>
-      <c r="E3" s="6">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6">
-        <v>200</v>
-      </c>
-      <c r="G3" s="6">
-        <v>200</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>435</v>
-      </c>
-      <c r="D4" s="6">
-        <v>400</v>
-      </c>
-      <c r="E4" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6">
-        <v>600</v>
-      </c>
-      <c r="G4" s="6">
-        <v>150</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>559</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>50</v>
-      </c>
-      <c r="G5" s="6">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>520</v>
-      </c>
-      <c r="D6" s="6">
-        <v>200</v>
-      </c>
-      <c r="E6" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6">
-        <v>100</v>
-      </c>
-      <c r="G6" s="6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>420</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>50</v>
-      </c>
-      <c r="G7" s="6">
-        <v>10</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>47</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6">
-        <v>84</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6">
-        <v>59</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
-        <v>108</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -859,19 +987,57 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8244022-14D0-41F8-9F06-3C3C56845F71}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1111,21 +1277,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1149,27 +1315,27 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CB7306-75D0-4B5B-91EC-69E0658026B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="64cefb42-e3c2-4dc3-b144-1de1c401c1ce"/>
+    <ds:schemaRef ds:uri="9520cf19-b5d0-4cec-b926-caa658dd91e9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CB7306-75D0-4B5B-91EC-69E0658026B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="64cefb42-e3c2-4dc3-b144-1de1c401c1ce"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9520cf19-b5d0-4cec-b926-caa658dd91e9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/configfile.xlsx
+++ b/configfile.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\OneDrive - PAR Technology Corporation\Code\Inventory Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD046EC1-3385-4AF8-8E4C-5519834823D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{05DF7E3E-4C78-43F1-8D7F-C41B5863BEF9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
   </bookViews>
   <sheets>
-    <sheet name="itemmaster" sheetId="1" r:id="rId1"/>
-    <sheet name="simchange" sheetId="3" r:id="rId2"/>
+    <sheet name="data" sheetId="4" r:id="rId1"/>
+    <sheet name="itemmaster" sheetId="1" r:id="rId2"/>
+    <sheet name="simchange" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -138,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>M6150</t>
   </si>
@@ -146,9 +149,6 @@
     <t>Terminal</t>
   </si>
   <si>
-    <t>Stand</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
@@ -185,9 +185,6 @@
     <t>RAM.8GB</t>
   </si>
   <si>
-    <t>NoStand</t>
-  </si>
-  <si>
     <t>Info does not change</t>
   </si>
   <si>
@@ -219,6 +216,27 @@
   </si>
   <si>
     <t>Component to change into skeleton terminal. These will be changed from components to terminals</t>
+  </si>
+  <si>
+    <t>STAND</t>
+  </si>
+  <si>
+    <t>NOSTAND</t>
+  </si>
+  <si>
+    <t>bomnum</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>Counts number of components in a BOM for FG parts</t>
   </si>
 </sst>
 </file>
@@ -306,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,6 +342,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,11 +670,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0AB3E2-0800-4E22-BEFE-36B9910DC5CC}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <f>COUNTIF(itemmaster!2:2, "*bom*")</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93673BFE-8F2E-493D-8840-240270718E6F}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,51 +735,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -736,18 +805,18 @@
         <v>200</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -768,18 +837,18 @@
         <v>150</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -800,18 +869,18 @@
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -832,18 +901,18 @@
         <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1</v>
@@ -864,21 +933,21 @@
         <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
         <v>47</v>
@@ -893,10 +962,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
         <v>84</v>
@@ -911,10 +980,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
         <v>59</v>
@@ -929,10 +998,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4">
         <v>108</v>
@@ -947,10 +1016,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="C12" s="4">
         <v>21</v>
@@ -965,10 +1034,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -991,12 +1060,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8244022-14D0-41F8-9F06-3C3C56845F71}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,22 +1075,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>380</v>
@@ -1028,7 +1098,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>451</v>

--- a/configfile.xlsx
+++ b/configfile.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\OneDrive - PAR Technology Corporation\Code\Inventory Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{05DF7E3E-4C78-43F1-8D7F-C41B5863BEF9}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA10DFB2-7393-4F25-8011-380BAFD869CE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="4" r:id="rId1"/>
-    <sheet name="itemmaster" sheetId="1" r:id="rId2"/>
-    <sheet name="simchange" sheetId="3" r:id="rId3"/>
+    <sheet name="itemmaster" sheetId="1" r:id="rId1"/>
+    <sheet name="simchange" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>M6150</t>
   </si>
@@ -188,12 +187,6 @@
     <t>Info does not change</t>
   </si>
   <si>
-    <t>Bom strucure will be scalable</t>
-  </si>
-  <si>
-    <t>bom.hd</t>
-  </si>
-  <si>
     <t>bom.ram</t>
   </si>
   <si>
@@ -224,19 +217,10 @@
     <t>NOSTAND</t>
   </si>
   <si>
-    <t>bomnum</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>stat</t>
-  </si>
-  <si>
-    <t>Counts number of components in a BOM for FG parts</t>
+    <t>Bom strucure will be scalable, put in order of least to most difficult to replace if we need to rework</t>
+  </si>
+  <si>
+    <t>bom.ssd</t>
   </si>
 </sst>
 </file>
@@ -324,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,20 +326,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,56 +648,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0AB3E2-0800-4E22-BEFE-36B9910DC5CC}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2">
-        <f>COUNTIF(itemmaster!2:2, "*bom*")</f>
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93673BFE-8F2E-493D-8840-240270718E6F}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,21 +668,21 @@
     <col min="8" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -761,25 +695,25 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -804,14 +738,14 @@
       <c r="G3" s="4">
         <v>200</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -836,14 +770,14 @@
       <c r="G4" s="4">
         <v>150</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -868,14 +802,14 @@
       <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -900,14 +834,14 @@
       <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,14 +866,14 @@
       <c r="G7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1016,7 +950,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>2</v>
@@ -1034,7 +968,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>2</v>
@@ -1060,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8244022-14D0-41F8-9F06-3C3C56845F71}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1075,17 +1009,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,6 +1047,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF95FB54B1C6945B23797DADA0221C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d3843e0c457963f002f4b5a5bee2326">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="64cefb42-e3c2-4dc3-b144-1de1c401c1ce" xmlns:ns4="9520cf19-b5d0-4cec-b926-caa658dd91e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="784e33d98d1584d8c6d8715e210251cc" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1346,25 +1298,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CB7306-75D0-4B5B-91EC-69E0658026B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="64cefb42-e3c2-4dc3-b144-1de1c401c1ce"/>
+    <ds:schemaRef ds:uri="9520cf19-b5d0-4cec-b926-caa658dd91e9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A5CD8FE-D194-4959-9C9B-019EE1FD374A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1382,30 +1342,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CB7306-75D0-4B5B-91EC-69E0658026B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="64cefb42-e3c2-4dc3-b144-1de1c401c1ce"/>
-    <ds:schemaRef ds:uri="9520cf19-b5d0-4cec-b926-caa658dd91e9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/configfile.xlsx
+++ b/configfile.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\OneDrive - PAR Technology Corporation\Code\Inventory Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA10DFB2-7393-4F25-8011-380BAFD869CE}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FD850D7-93A8-4A72-9EA7-2C381326BF7E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
   </bookViews>
   <sheets>
-    <sheet name="itemmaster" sheetId="1" r:id="rId1"/>
-    <sheet name="simchange" sheetId="3" r:id="rId2"/>
+    <sheet name="Setup" sheetId="4" r:id="rId1"/>
+    <sheet name="itemmaster" sheetId="1" r:id="rId2"/>
+    <sheet name="simchange" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -217,10 +218,10 @@
     <t>NOSTAND</t>
   </si>
   <si>
-    <t>Bom strucure will be scalable, put in order of least to most difficult to replace if we need to rework</t>
-  </si>
-  <si>
     <t>bom.ssd</t>
+  </si>
+  <si>
+    <t>Bom strucure will be scalable, put in order of least to most difficult (left to right) to replace if we need to rework</t>
   </si>
 </sst>
 </file>
@@ -326,14 +327,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,12 +649,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C753F5-D127-4EAC-AA86-BF887535462B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93673BFE-8F2E-493D-8840-240270718E6F}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,20 +682,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -710,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -994,7 +1007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8244022-14D0-41F8-9F06-3C3C56845F71}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1009,10 +1022,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1047,21 +1060,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1299,6 +1312,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CB7306-75D0-4B5B-91EC-69E0658026B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1312,14 +1333,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/configfile.xlsx
+++ b/configfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\OneDrive - PAR Technology Corporation\Code\Inventory Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partech-my.sharepoint.com/personal/karl_schubert_partech_com/Documents/Code/Inventory Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FD850D7-93A8-4A72-9EA7-2C381326BF7E}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D59D1B01-9180-48C4-A45E-14FD1B2BA5E3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="4" r:id="rId1"/>
@@ -141,10 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
-  <si>
-    <t>M6150</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Terminal</t>
   </si>
@@ -152,9 +149,6 @@
     <t>Component</t>
   </si>
   <si>
-    <t>SSD.64GB</t>
-  </si>
-  <si>
     <t>RAM.4GB</t>
   </si>
   <si>
@@ -167,33 +161,12 @@
     <t>value</t>
   </si>
   <si>
-    <t>M6150-01</t>
-  </si>
-  <si>
-    <t>M6150-02</t>
-  </si>
-  <si>
-    <t>M6150-03</t>
-  </si>
-  <si>
-    <t>M6150-10</t>
-  </si>
-  <si>
     <t>SSD.128GB</t>
   </si>
   <si>
-    <t>RAM.8GB</t>
-  </si>
-  <si>
     <t>Info does not change</t>
   </si>
   <si>
-    <t>bom.ram</t>
-  </si>
-  <si>
-    <t>bom.stand</t>
-  </si>
-  <si>
     <t>newvalue</t>
   </si>
   <si>
@@ -212,16 +185,49 @@
     <t>Component to change into skeleton terminal. These will be changed from components to terminals</t>
   </si>
   <si>
-    <t>STAND</t>
-  </si>
-  <si>
-    <t>NOSTAND</t>
-  </si>
-  <si>
     <t>bom.ssd</t>
   </si>
   <si>
     <t>Bom strucure will be scalable, put in order of least to most difficult (left to right) to replace if we need to rework</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>All parts in BOMs must be present in column A</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>Only two types of parts allowed (Terminal &amp; Component)</t>
+  </si>
+  <si>
+    <t>Item Master Tab</t>
+  </si>
+  <si>
+    <t>Simchange Tab</t>
+  </si>
+  <si>
+    <t>Parts you want to turn into the "golden box" that get changed to terminal part numbers</t>
+  </si>
+  <si>
+    <t>Add as many columns of parts for BOMs as you would like, column name MUST start with "bom"</t>
+  </si>
+  <si>
+    <t>bom.memory</t>
+  </si>
+  <si>
+    <t>M6250</t>
+  </si>
+  <si>
+    <t>Favor towards 8GB</t>
+  </si>
+  <si>
+    <t>70/30 or 80/20</t>
   </si>
 </sst>
 </file>
@@ -309,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,10 +329,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,7 +339,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,6 +356,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>94220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E380A39E-D6E2-46A5-A7E5-3152EF7C421B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="0"/>
+          <a:ext cx="8238095" cy="3200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190148</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DDFB76-26F6-44EB-B0A1-13B2CA4A1B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="3333750"/>
+          <a:ext cx="2819048" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,23 +748,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C753F5-D127-4EAC-AA86-BF887535462B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93673BFE-8F2E-493D-8840-240270718E6F}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,66 +841,62 @@
     <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" s="4">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D3" s="4">
         <v>700</v>
@@ -746,261 +905,56 @@
         <v>10</v>
       </c>
       <c r="F3" s="4">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G3" s="4">
-        <v>200</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
+        <v>300</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>435</v>
-      </c>
-      <c r="D4" s="4">
-        <v>400</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>600</v>
-      </c>
-      <c r="G4" s="4">
-        <v>150</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>559</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>50</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>520</v>
-      </c>
-      <c r="D6" s="4">
-        <v>200</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>420</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>50</v>
-      </c>
-      <c r="G7" s="4">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>47</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>84</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
         <v>59</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>108</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1009,46 +963,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8244022-14D0-41F8-9F06-3C3C56845F71}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="9"/>
+    <row r="1" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1">
-        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -1060,24 +1006,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF95FB54B1C6945B23797DADA0221C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d3843e0c457963f002f4b5a5bee2326">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="64cefb42-e3c2-4dc3-b144-1de1c401c1ce" xmlns:ns4="9520cf19-b5d0-4cec-b926-caa658dd91e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="784e33d98d1584d8c6d8715e210251cc" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1311,10 +1239,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A5CD8FE-D194-4959-9C9B-019EE1FD374A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="64cefb42-e3c2-4dc3-b144-1de1c401c1ce"/>
+    <ds:schemaRef ds:uri="9520cf19-b5d0-4cec-b926-caa658dd91e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1338,21 +1296,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A5CD8FE-D194-4959-9C9B-019EE1FD374A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="64cefb42-e3c2-4dc3-b144-1de1c401c1ce"/>
-    <ds:schemaRef ds:uri="9520cf19-b5d0-4cec-b926-caa658dd91e9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/configfile.xlsx
+++ b/configfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partech-my.sharepoint.com/personal/karl_schubert_partech_com/Documents/Code/Inventory Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D59D1B01-9180-48C4-A45E-14FD1B2BA5E3}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{259C5951-45D3-4AE9-83D1-5336FD308064}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>Karl</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{1FB72EA7-EDA7-4B25-8D9D-A71EA906889B}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{1FB72EA7-EDA7-4B25-8D9D-A71EA906889B}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{11937790-7591-4CA7-A79A-661206C9DB06}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{11937790-7591-4CA7-A79A-661206C9DB06}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{40470C51-4A90-486C-BD2E-6E840364E5FD}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{40470C51-4A90-486C-BD2E-6E840364E5FD}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{AC05D51D-E46B-4092-A2CF-867BBF5F291E}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{AC05D51D-E46B-4092-A2CF-867BBF5F291E}">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Terminal</t>
   </si>
@@ -149,85 +149,118 @@
     <t>Component</t>
   </si>
   <si>
+    <t>partnumber</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>SSD.128GB</t>
+  </si>
+  <si>
+    <t>Info does not change</t>
+  </si>
+  <si>
+    <t>newvalue</t>
+  </si>
+  <si>
+    <t>Component to change into skeleton terminal. These will be changed from components to terminals</t>
+  </si>
+  <si>
+    <t>bom.ssd</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>All parts in BOMs must be present in column A</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>Only two types of parts allowed (Terminal &amp; Component)</t>
+  </si>
+  <si>
+    <t>Item Master Tab</t>
+  </si>
+  <si>
+    <t>Simchange Tab</t>
+  </si>
+  <si>
+    <t>Parts you want to turn into the "golden box" that get changed to terminal part numbers</t>
+  </si>
+  <si>
+    <t>Add as many columns of parts for BOMs as you would like, column name MUST start with "bom"</t>
+  </si>
+  <si>
+    <t>bom.memory</t>
+  </si>
+  <si>
+    <t>Favor towards 8GB</t>
+  </si>
+  <si>
+    <t>70/30 or 80/20</t>
+  </si>
+  <si>
+    <t>M6150</t>
+  </si>
+  <si>
+    <t>dmd.fcmn</t>
+  </si>
+  <si>
+    <t>dmd.fcstd</t>
+  </si>
+  <si>
+    <t>dmd.dmdmn</t>
+  </si>
+  <si>
+    <t>dmd.dmdstd</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>Demand (forecast/SO Demand) column names must start with "dmd"</t>
+  </si>
+  <si>
+    <t>RAM.8GB</t>
+  </si>
+  <si>
+    <t>freight.standard</t>
+  </si>
+  <si>
+    <t>freigh.premium</t>
+  </si>
+  <si>
+    <t>Must start with "bom"</t>
+  </si>
+  <si>
+    <t>Demand info</t>
+  </si>
+  <si>
+    <t>Terminal Cost</t>
+  </si>
+  <si>
+    <t>Hard Drive Cost</t>
+  </si>
+  <si>
+    <t>Ram Cost</t>
+  </si>
+  <si>
+    <t>NewValue</t>
+  </si>
+  <si>
     <t>RAM.4GB</t>
   </si>
   <si>
-    <t>partnumber</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>SSD.128GB</t>
-  </si>
-  <si>
-    <t>Info does not change</t>
-  </si>
-  <si>
-    <t>newvalue</t>
-  </si>
-  <si>
-    <t>fcmn</t>
-  </si>
-  <si>
-    <t>fcstd</t>
-  </si>
-  <si>
-    <t>dmdmn</t>
-  </si>
-  <si>
-    <t>dmdstd</t>
-  </si>
-  <si>
-    <t>Component to change into skeleton terminal. These will be changed from components to terminals</t>
-  </si>
-  <si>
-    <t>bom.ssd</t>
-  </si>
-  <si>
-    <t>Bom strucure will be scalable, put in order of least to most difficult (left to right) to replace if we need to rework</t>
-  </si>
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>All parts in BOMs must be present in column A</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
-  <si>
-    <t>Only two types of parts allowed (Terminal &amp; Component)</t>
-  </si>
-  <si>
-    <t>Item Master Tab</t>
-  </si>
-  <si>
-    <t>Simchange Tab</t>
-  </si>
-  <si>
-    <t>Parts you want to turn into the "golden box" that get changed to terminal part numbers</t>
-  </si>
-  <si>
-    <t>Add as many columns of parts for BOMs as you would like, column name MUST start with "bom"</t>
-  </si>
-  <si>
-    <t>bom.memory</t>
-  </si>
-  <si>
-    <t>M6250</t>
-  </si>
-  <si>
-    <t>Favor towards 8GB</t>
-  </si>
-  <si>
-    <t>70/30 or 80/20</t>
+    <t>M6150-01</t>
   </si>
 </sst>
 </file>
@@ -256,7 +289,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +320,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -311,11 +356,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,11 +414,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -362,14 +471,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>94220</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>303770</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152000</xdr:rowOff>
     </xdr:to>
@@ -394,7 +503,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="0"/>
+          <a:off x="7010400" y="0"/>
           <a:ext cx="8238095" cy="3200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -406,16 +515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190148</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9321</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>399698</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -438,7 +547,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6219825" y="3333750"/>
+          <a:off x="7038975" y="3286125"/>
           <a:ext cx="2819048" cy="1628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -751,72 +860,110 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -825,11 +972,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93673BFE-8F2E-493D-8840-240270718E6F}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,60 +984,69 @@
     <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -899,62 +1055,139 @@
         <v>445</v>
       </c>
       <c r="D3" s="4">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="G3" s="4">
-        <v>300</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4">
+        <v>150</v>
+      </c>
+      <c r="I3" s="4">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>84</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="D4" s="4">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>120</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>60</v>
+      </c>
+      <c r="I4" s="4">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>59</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>20</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>80</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="3">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -963,11 +1196,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8244022-14D0-41F8-9F06-3C3C56845F71}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,25 +1209,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>380</v>
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -1006,6 +1247,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF95FB54B1C6945B23797DADA0221C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d3843e0c457963f002f4b5a5bee2326">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="64cefb42-e3c2-4dc3-b144-1de1c401c1ce" xmlns:ns4="9520cf19-b5d0-4cec-b926-caa658dd91e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="784e33d98d1584d8c6d8715e210251cc" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1239,40 +1498,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A5CD8FE-D194-4959-9C9B-019EE1FD374A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="64cefb42-e3c2-4dc3-b144-1de1c401c1ce"/>
-    <ds:schemaRef ds:uri="9520cf19-b5d0-4cec-b926-caa658dd91e9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1296,9 +1525,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A5CD8FE-D194-4959-9C9B-019EE1FD374A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="64cefb42-e3c2-4dc3-b144-1de1c401c1ce"/>
+    <ds:schemaRef ds:uri="9520cf19-b5d0-4cec-b926-caa658dd91e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/configfile.xlsx
+++ b/configfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partech-my.sharepoint.com/personal/karl_schubert_partech_com/Documents/Code/Inventory Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{259C5951-45D3-4AE9-83D1-5336FD308064}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34BF31F5-68C9-4A7D-BD16-C20B207ED757}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="itemmaster" sheetId="1" r:id="rId2"/>
     <sheet name="simchange" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -260,14 +260,14 @@
     <t>RAM.4GB</t>
   </si>
   <si>
-    <t>M6150-01</t>
+    <t>M6151</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +287,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -549,6 +555,50 @@
         <a:xfrm>
           <a:off x="7038975" y="3286125"/>
           <a:ext cx="2819048" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532242</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA05FF6A-6A69-4B7F-9E95-0DCE78630764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6181725"/>
+          <a:ext cx="9266667" cy="1228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -859,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C753F5-D127-4EAC-AA86-BF887535462B}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +978,7 @@
         <v>34</v>
       </c>
       <c r="D10">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -936,7 +986,7 @@
         <v>35</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,12 +994,22 @@
         <v>36</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>37</v>
+      </c>
+      <c r="D13">
+        <f>D10-D11-D12</f>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>D12+D13</f>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -976,7 +1036,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,25 +1118,26 @@
         <v>30</v>
       </c>
       <c r="E3" s="4">
+        <f>D3*4</f>
         <v>120</v>
       </c>
       <c r="F3" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G3" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I3" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1087,12 +1148,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
       </c>
       <c r="E4" s="4">
+        <f>D4*4</f>
         <v>120</v>
       </c>
       <c r="F4" s="4">
@@ -1102,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I4" s="4">
         <v>20</v>
@@ -1111,12 +1173,12 @@
         <v>5</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -1128,6 +1190,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4">
+        <f t="shared" ref="E5" si="0">D5*4</f>
         <v>20</v>
       </c>
       <c r="F5" s="4"/>
@@ -1139,18 +1202,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" s="4">
+        <f t="shared" ref="E6:E7" si="1">D6*4</f>
         <v>20</v>
       </c>
       <c r="F6" s="4"/>
@@ -1162,18 +1226,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
       </c>
       <c r="E7" s="4">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F7" s="4"/>
@@ -1189,6 +1254,7 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1200,7 +1266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1293,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="5">
-        <v>450</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,7 +1301,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="8">
-        <v>450</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -1247,21 +1313,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1499,14 +1565,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CB7306-75D0-4B5B-91EC-69E0658026B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1520,6 +1578,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/configfile.xlsx
+++ b/configfile.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partech-my.sharepoint.com/personal/karl_schubert_partech_com/Documents/Code/Inventory Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\OneDrive - PAR Technology Corporation\Code\Inventory Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34BF31F5-68C9-4A7D-BD16-C20B207ED757}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="6_{F3C4012D-B2AE-4A8F-A3F4-A7788AC43E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0AB0DEDA-FB8B-4575-A8B9-959CB9AB6C37}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6746D0B4-914B-4E19-95EA-AE62DD665886}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="4" r:id="rId1"/>
-    <sheet name="itemmaster" sheetId="1" r:id="rId2"/>
-    <sheet name="simchange" sheetId="3" r:id="rId3"/>
+    <sheet name="itemmaster (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="itemmaster" sheetId="1" r:id="rId3"/>
+    <sheet name="simchange" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -35,6 +36,112 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Karl</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{54FBEF24-5CFE-4845-88CA-7DDBB289E7D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Forecast Mean</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{6BDF65EF-6E7C-4FA9-957D-735C4C8F8D7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Forecast stdev</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{44B9B91E-5CF9-43B5-88BB-1C9B862E6201}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+demand mean</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{91B1C3BA-DE5E-45D1-A2D0-4824A7C97B28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+demand stdev</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Karl</author>
@@ -141,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>Terminal</t>
   </si>
@@ -261,6 +368,9 @@
   </si>
   <si>
     <t>M6151</t>
+  </si>
+  <si>
+    <t>Simulation</t>
   </si>
 </sst>
 </file>
@@ -403,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,6 +534,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -920,11 +1033,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -959,11 +1072,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1031,10 +1144,254 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE60F3D6-39E3-47CB-81E8-3F9C709B65E4}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="9" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="9" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>445</v>
+      </c>
+      <c r="E3" s="4">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3*4</f>
+        <v>120</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
+        <v>100</v>
+      </c>
+      <c r="J3" s="4">
+        <v>40</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>445</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4">
+        <f>E4*4</f>
+        <v>120</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>445</v>
+      </c>
+      <c r="E5" s="4">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4">
+        <f>E5*4</f>
+        <v>120</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>100</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>445</v>
+      </c>
+      <c r="E6" s="4">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <f>E6*4</f>
+        <v>120</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93673BFE-8F2E-493D-8840-240270718E6F}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -1051,23 +1408,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1260,7 +1617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8244022-14D0-41F8-9F06-3C3C56845F71}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1275,10 +1632,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1313,21 +1670,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1565,6 +1922,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CB7306-75D0-4B5B-91EC-69E0658026B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1578,14 +1943,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CBE66B-CBFF-42B3-B347-EB769CD1429F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
